--- a/topologies/cemlabstudents.xlsx
+++ b/topologies/cemlabstudents.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbidkar/Documents/Rugved projects/VC VCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlstyszynski/Documents/projects/tme/techfest2019/topologies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B88887-5634-8F49-AE6B-7007EE7D02D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5439AF-C2A5-AA46-9D91-7B4DD775C1C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="student_applications CEM lab EM" sheetId="1" r:id="rId1"/>
+    <sheet name="student_applications CEM Tuesda" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,273 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="89">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="125" uniqueCount="100">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
   <si>
     <t>Application Name</t>
   </si>
   <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##e78545ef-801d-4594-99d9-249cd6e31e27##1563454087510</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/BMUQXWcQDwb3EKjQDipJcB4gSVvGbR8X78tj2lmGeGFkYnNpQ9FHzK5XSRRnha1M/apps/3125679107009</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##3040f34a-a6c5-4e82-a4cb-6b185b7c044b##1563454087558</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/MawEOoMwnW7dHCCajXQnUEuH4ReDQpcmM7MXWiOA5QUE0FxMCLquyFvmVhhOpqnV/apps/3125679074183</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##d13e63ae-3484-4f8e-99ba-99c42b0f5727##1563454087566</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/355e76AL9KqRfbrRT1gWlTP8Il5IuF02tR25ztWsZ5H6lhYEGUQjquQqLbqy1Ipb/apps/3125679107012</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##b5bbf81b-0192-4deb-9290-2e712dc69c24##1563454087507</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/c0ZmalvY1oq0bUTl34PJGgD3RQwQWUGLFJaGGkZRoOo36Ky56LjIFLu3IvDoNxAI/apps/3125679074179</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##faf3531e-e438-4658-b81a-a7d17679b354##1563454087580</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/pSgi1XcMl3cFFjPmf7FwbzHPYd8mGKc3VT8o3gioRiXsXm0xQXfZme71Wx39CESX/apps/3125679074182</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##1ab77759-f2b9-4cb4-96ae-c1f0597ac837##1563454087530</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/ABvowafnNlguEMmTDqn0HvMS50vMcopndXSeUoy1DG498tIxHxoERmlUy2F7gdHO/apps/3125679107010</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##bad826a8-6ad1-4ba1-a8f4-2c1e5024e463##1563454087598</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/blELrs9tPYHizYsgnpRMJ8kctWL2ZYO6WwtzoDRTO2y3Bsi7hDoxzT0SRJT7A8Ag/apps/3125679107014</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##831937bf-092c-4fb9-9fc4-c7363bf05c22##1563454087555</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/ZHCJKU8LvtwCSQAIXDVnV1oTtIKdU7SF0G6iITpF9LsLdh2gnllV4vifkmPaD9Ew/apps/3125679107011</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##486a684f-4271-4c04-a9ed-601c3ddc3ca9##1563454087616</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/RcEuSRy9GSVdynD8YVEB9Z7ijMLUIuHesiHZASS9lfCtmtddpzbTWFbQNqOoOR20/apps/3125679074189</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##12009ae6-7826-4d2a-bd00-161f8067750a##1563454087608</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/QdMkCSTCCDQZhqkCRuUw80qULu28yJ9L88kaDbEoDLYLo36SUsJO3aK8B4c3MuFN/apps/3125679074185</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##da7d8601-bf23-4072-ade7-94430a722d19##1563454087658</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/i1c7rmFPfBGack30AD0k2ZkPEqwO59GQXzDHPEufk8Ci9NLP5qNgPrkUB3khuWJp/apps/3125679107018</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##2cc44986-0215-41ef-b5a4-1b5251368c7f##1563454087616</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/Xrc1bDeP5RdUZMcEorb8jDg7A6cpzopb94LmY3rSKRrs29y8d7MGFnOMDwEr9q3P/apps/3125679107015</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##af78f463-fb75-46bf-9fbd-37111dd3d566##1563454087624</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/Hfcu8GEMhUJKWQV7ll5xv7Cyo5kimReZus3pYypwnQUBOqOGjDdfy2jD0k6yYQaZ/apps/3125679107013</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##625eb27a-8037-406b-9e01-53ac6ec41d3c##1563454087530</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/s4vQGgwndJD9mjCWFqpRhRtMULtKbOyKmU0G72aHhqrz8zHrMiAAy1Z8mabHZ4Cs/apps/3125679074180</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##0fa60a50-15d9-4e19-a057-ecc6898ca275##1563454087584</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/LMGE1YUiIzjXxvMJbCryPjf1HAptyJ15VvUcRJ2y1AJTUkdk1E28U8jJ8CCm9UtQ/apps/3125679107008</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##8cb67f21-74b2-4982-8169-f811e4ab1d35##1563454087618</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/BoELvnqajHVlNCRY4N0G61bW14DM7R7hAtqcjwznu3LVwZDZRPVBJehvjMeSRrQI/apps/3125679107016</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##1b20846d-754c-465f-922c-1d97b0537d1e##1563454087626</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/MpObFo5OjNPclxOwDk5sQgsYXck6I3xa05UfworAlDuGrOcpc3CyTya6mHlfxQvM/apps/3125679074187</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##73109b84-17fa-43aa-bc0f-b63cf36f9520##1563454087589</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/Sh0jDWPXvxXWyhPMuZ0OVrFGXhn8cP5tQPIYleCR9qTEtKHKjYC8SO0JY3Emu2lG/apps/3125679074186</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##74109b65-7157-4e3c-a608-41e4a39c8194##1563454087628</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/jpbIUTFjtvUNHx4j2W9r6iqXQIW2cO8pF2gFTBcVGuyKfAZDizr7FCkAcVhSBi1F/apps/3125679074188</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##e2db68c5-4a4a-4c9e-9443-19ba81428871##1563454087631</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/tJj39HRJnR8IK0aJBnuH8r4UmbUKRif4atl7f9Qz6y1ORXF5OtzA5vfRXhXKlrms/apps/3125679107017</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##a70b4da7-ca77-46bc-bf2e-6dd4394785d5##1563454087616</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/NPIU6VEEshDksqHUJrplzsYYAYfqCAVHoyAhIwVcBMvlfyeInQ4tFy3wOwJm5FDU/apps/3125679074184</t>
-  </si>
-  <si>
-    <t>EMEA 2019 CEM Lab training - final##IP Fabric Demo-CEM-5-1GA-with-computes##b7ae6d3f-76fd-4d36-8e0b-5eeb3ce458dd##1563454087507</t>
-  </si>
-  <si>
-    <t>https://access.ravellosystems.com/simple/#/uhiWhgChnX8GQt4Oks4jDnIdyGybpY1NyRQZOkVwKHnbuQK1B3RjaNoXLVczsGwl/apps/3125679074181</t>
-  </si>
-  <si>
-    <t>student 1</t>
-  </si>
-  <si>
-    <t>student 2</t>
-  </si>
-  <si>
-    <t>student 3</t>
-  </si>
-  <si>
-    <t>student 4</t>
-  </si>
-  <si>
-    <t>student 5</t>
-  </si>
-  <si>
-    <t>student 6</t>
-  </si>
-  <si>
-    <t>student 7</t>
-  </si>
-  <si>
-    <t>student 8</t>
-  </si>
-  <si>
-    <t>student 9</t>
-  </si>
-  <si>
-    <t>student 10</t>
-  </si>
-  <si>
-    <t>student 11</t>
-  </si>
-  <si>
-    <t>student 12</t>
-  </si>
-  <si>
-    <t>student 13</t>
-  </si>
-  <si>
-    <t>student 14</t>
-  </si>
-  <si>
-    <t>student 15</t>
-  </si>
-  <si>
-    <t>student 16</t>
-  </si>
-  <si>
-    <t>student 17</t>
-  </si>
-  <si>
-    <t>student 18</t>
-  </si>
-  <si>
-    <t>student 19</t>
-  </si>
-  <si>
-    <t>student 20</t>
-  </si>
-  <si>
-    <t>student 21</t>
-  </si>
-  <si>
-    <t>student 22</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Dmitry Karyakin</t>
-  </si>
-  <si>
-    <t>Valery Yastrebov</t>
-  </si>
-  <si>
-    <t>Kristof Szabo</t>
-  </si>
-  <si>
-    <t>Mohammed Alwaheidi</t>
-  </si>
-  <si>
-    <t>Ayman Aborabh</t>
-  </si>
-  <si>
-    <t>Eli Kosharovsky</t>
-  </si>
-  <si>
-    <t>Rene Trianna</t>
-  </si>
-  <si>
-    <t>Elisabeth rodrigues</t>
-  </si>
-  <si>
-    <t>Razvan Ghita</t>
-  </si>
-  <si>
-    <t>Stefano Ruggiu</t>
-  </si>
-  <si>
-    <t>Jani Ripatti</t>
-  </si>
-  <si>
-    <t>Roger Wiklund</t>
-  </si>
-  <si>
-    <t>Pawel Kochimowski</t>
-  </si>
-  <si>
-    <t>Thor Zieger</t>
-  </si>
-  <si>
-    <t>Marco Chiandusso</t>
-  </si>
-  <si>
-    <t>Christoph Plum</t>
-  </si>
-  <si>
-    <t>Ben Williams</t>
-  </si>
-  <si>
-    <t>Student pod Access URL</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Baptiste Villetard</t>
-  </si>
-  <si>
-    <t>Andrea Gianini</t>
+    <t>Ephemeral Access URL</t>
+  </si>
+  <si>
+    <t>Andrea Reitzel</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>areitzel@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##555047da-faf4-4cd8-b4b4-3817fc9521b4##1566921660986</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/l6yUePhXE2lkHVkLf3VyEGhfNJVqz5uYhDIva5qLXVI4YdoGzOyHYqxwfbes1ZlS/apps/3125680343311</t>
+  </si>
+  <si>
+    <t>Aneetta Sunny</t>
+  </si>
+  <si>
+    <t>asunny@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##248bf39f-4b1d-4768-9e37-64fd2f1d908b##1566921661026</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/Cbj0foAFefyRdTD5ohCPfq36ceaxipP1vbudl9DJK1VyP3Xia5jcxdLD7mVOsOxc/apps/3125680343312</t>
+  </si>
+  <si>
+    <t>Aniket Muchandi</t>
+  </si>
+  <si>
+    <t>aniketm@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##a34ffda1-b9e1-4f80-bb77-0985701f07fb##1566921660949</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/N6QMeuInZjnbbgxNYCsx0RaZInSHkyNmfsvifR1RgMwSG0Bbo36zRlt7aBE7QDWg/apps/3125680277690</t>
+  </si>
+  <si>
+    <t>Ashwin Arunkumar</t>
+  </si>
+  <si>
+    <t>ashwinak@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##0b5c5896-0ae5-4d9e-8ffb-237f3aa61a56##1566921660969</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/EaiHfp6NoQgLnMTD609k3OVa52TUSfjRcI0mMUplRIOBybCCQDrwplpKE3aOLynB/apps/3125680343309</t>
+  </si>
+  <si>
+    <t>Bear Terburg</t>
+  </si>
+  <si>
+    <t>bear@goredsky.com</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##3ebcd604-c0be-469b-84b4-ba17adae7af1##1566921661059</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/vAszMrMt0A7bTvoJQYsq0G4FogNenYEBbHIxRvCOApOZMIYBCkgTXzCMaDb5quBz/apps/3125680277698</t>
+  </si>
+  <si>
+    <t>Charles Ball</t>
+  </si>
+  <si>
+    <t>charlesball@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##32c94c49-454b-4299-9421-c0487f6fbcd0##1566921660946</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/pwpasE8YSLtxYOoMwAdgasn6bQZYjcUHNDjY0e43S3P7s1PxYXmwhpVvisiFKigJ/apps/3125680343313</t>
+  </si>
+  <si>
+    <t>Chris Conley</t>
+  </si>
+  <si>
+    <t>Chris.conley@trace3.com</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##5550d597-4b9d-45fd-bad6-736ce58d4bc1##1566921660994</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/OqNK7I6wLRGKvmXwQGe4Zj6MunxmgVgPCSP8aHlk7T2Y5EsvONBb0TcrpVMIB2lG/apps/3125680343310</t>
+  </si>
+  <si>
+    <t>Eric Durlin</t>
+  </si>
+  <si>
+    <t>edurlin@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##13c4f5a2-49d2-4505-8488-91ce36e77821##1566921661013</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/3j1jX3FGFQ5CIpc8tThn3x2nXOawibcWat1jcSDu3EEMhdaMNb6tey5PBK9LRfaW/apps/3125680343317</t>
+  </si>
+  <si>
+    <t>Himanshu Tripathi</t>
+  </si>
+  <si>
+    <t>htripathi@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##f3b61084-d3a1-4f60-9e3a-b80283c6b1fa##1566921660969</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/Q4ZWiDt3IsW1WAB5hl56ftYhaE3pi7diIte868w2p62MWp3KLs7sqAEVXRjtXKiY/apps/3125680277694</t>
+  </si>
+  <si>
+    <t>Jeremy Thompson</t>
+  </si>
+  <si>
+    <t>jtthompson@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##4c897bc2-cd51-4f16-8229-224cc5eaae51##1566921661019</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/LQEof5hWVV1NEHDHWLPMKUi5UunlUgpcVvD1oBhY2S7haxgaVCZ8fxvZky41vgeh/apps/3125680277693</t>
+  </si>
+  <si>
+    <t>Jim Kennedy</t>
+  </si>
+  <si>
+    <t>jpkennedy@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##bacf8116-8f4f-433c-a4de-3fbad29d4e91##1566921660895</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/VbT8ybYVM4amZvzu430gOZ7hnGZcioYiJwgoxYZKrrHKFCdpSphl5pm4AgLQPw7b/apps/3125680343315</t>
+  </si>
+  <si>
+    <t>Kimiyaki Rajamani</t>
+  </si>
+  <si>
+    <t>kimiyaki@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##0fb0641b-b506-4fad-b75a-15c28d864e95##1566921660993</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/NKlELRObfCwnhcwpBaJo4A3NFIrSBImafrwgOMc4Ezmi7DhLwalmnY1QJvBhB4ZE/apps/3125680343307</t>
+  </si>
+  <si>
+    <t>Liz Collins</t>
+  </si>
+  <si>
+    <t>lcollins@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##ef000c54-2111-4e14-844b-779a4431cb2b##1566921660997</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/vkX3wOuPnM5I3Tphm21spm00psWEFS0sEhLehsrysqA913pzyEA3VdAj89CoPbqb/apps/3125680277691</t>
+  </si>
+  <si>
+    <t>Marwin Frost</t>
+  </si>
+  <si>
+    <t>mfrost@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##85b64d0b-b9d6-4afb-af1f-68a69ad6ff53##1566921660953</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/Y4Ru0jZ7OqDm2FeP0U9bUERoOwFbqWosqBXN5shKNKcmOQNKifkceDmW0EENBIgb/apps/3125680343305</t>
+  </si>
+  <si>
+    <t>Michael Vicchiollo</t>
+  </si>
+  <si>
+    <t>mvicchiollo@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##a27d4215-e9f9-4ddc-8ca0-d6edbc93e979##1566921660992</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/HE4DSVStPtdl2Dt2ldrQ2RC6mVAD4xvAEZMD6uxmrI16ovVaymEoI29XqA4003Rz/apps/3125680277695</t>
+  </si>
+  <si>
+    <t>Nenad Pudar</t>
+  </si>
+  <si>
+    <t>npudar@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##a8953504-2098-4ebf-b6b0-5028dbcb3171##1566921660942</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/TbXtHMcF9WqQvRtgxIcLzvlCSiivglo5i20fMOeIGIVHQrMQ18SiyMoGVYoQzSwL/apps/3125680277697</t>
+  </si>
+  <si>
+    <t>Oliver Tinsman</t>
+  </si>
+  <si>
+    <t>tinsman@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##150c4f40-69e1-49c8-973b-f949a1875db6##1566921661004</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/iuw8b1OxLejXYrtRb52uIb3yEvNW4OhoULdYoUqeKFVZPLvGbXI6s0QDf9CrOhwt/apps/3125680277699</t>
+  </si>
+  <si>
+    <t>Paavan Parikh</t>
+  </si>
+  <si>
+    <t>pparikh@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##571d54aa-1ce9-4cc7-b3a8-256c953c5be1##1566921660924</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/UH8Mohuy5l9UcNnUQF65BIW3ynERLizfc7tztqh9N1C1b3s5O4p2vmau8FlUI7OC/apps/3125680343306</t>
+  </si>
+  <si>
+    <t>Student 21</t>
+  </si>
+  <si>
+    <t>Additional pods. Please check with instructor before using</t>
+  </si>
+  <si>
+    <t>rbidkar@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##ffc9f52e-1878-4c59-a8e9-937a971279e1##1566921661043</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/s7RMEEkkjXT9TjJqYc4EExkr39CBfznA0bURkzR9f5LRIFSwxEjctI4klnBMVkPk/apps/3125680277696</t>
+  </si>
+  <si>
+    <t>Student 22</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##5a3ecaef-4728-4cd9-9ef0-8c971da98fd2##1566921661112</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/rKKdN0lIAX1TrNQzbdV9Caeb88AEJ4GeyFBJP5kL529g0w4VUb2UiyJWHjeUlz8L/apps/3125680277692</t>
+  </si>
+  <si>
+    <t>Student 23</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##86c6f602-0f78-4656-84eb-7be0a3f9659c##1566921661047</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/hv4uUfrTcFuKP2IUv70w7MkpOhtZz2LWx26TiT9w9y9hiMwmqQFhxuSsoRjZo3Ii/apps/3125680343314</t>
+  </si>
+  <si>
+    <t>Student 24</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##4b40332a-4967-45be-b180-4830f18640e4##1566921661154</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/eTDm5kLuo5wdNMkEjoPJXYVD6iFJO3R8uX3wOIQu97UM3REE6BBqoLqKbhtpdG6c/apps/3125680343318</t>
+  </si>
+  <si>
+    <t>Tom Dyer</t>
+  </si>
+  <si>
+    <t>tom@nexuminc.com</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##67ddc0f4-f3d5-4b63-97b3-62210b67a50b##1566921661089</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/8SVu202CAAcdXcgEB3vHq7tWTRueP7KRkntSFcuke7lhnKKDtokGcE7pxTUpJEd3/apps/3125680343316</t>
+  </si>
+  <si>
+    <t>Vinayak Iyer</t>
+  </si>
+  <si>
+    <t>viyer@juniper.net</t>
+  </si>
+  <si>
+    <t>CEM training Tuesday##IP Fabric-CEM-1907_55-junos-18_4R2-updated-kernel-v2##a6401ca4-1fe7-469f-8926-0e3a286c60d4##1566921660973</t>
+  </si>
+  <si>
+    <t>https://access.ravellosystems.com/simple/#/LV6xlSvVBjuDxYBy0iz6fof0ASf83uIliIlD3GuQXDYHMnSf5olnAHVUUpELQci1/apps/3125680343308</t>
   </si>
 </sst>
 </file>
@@ -775,9 +808,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1133,334 +1165,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="0.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
       <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>